--- a/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
+++ b/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
@@ -1,48 +1,462 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>后续</t>
+  </si>
+  <si>
+    <t>18.00-21.00</t>
+  </si>
+  <si>
+    <t>练习maven框架</t>
+  </si>
+  <si>
+    <t>部分</t>
+  </si>
+  <si>
+    <t>14.00-17.00</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>17.00-19.00</t>
+  </si>
+  <si>
+    <t>尝试搭建框架</t>
+  </si>
+  <si>
+    <t>简单搭建</t>
+  </si>
+  <si>
+    <t>14.00-16.00</t>
+  </si>
+  <si>
+    <t>学习上传日志</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>19.00-21.00</t>
+  </si>
+  <si>
+    <t>上传日志</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>构建实体类</t>
+  </si>
+  <si>
+    <t>完成部分</t>
+  </si>
+  <si>
+    <t>构建实体类并数据测试</t>
+  </si>
+  <si>
+    <t>视频学习spring</t>
+  </si>
+  <si>
+    <t>数据库配置</t>
+  </si>
+  <si>
+    <t>添加对象</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +464,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1061,643 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G26" sqref="G26:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>5.11</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>5.14</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1">
+        <v>5.17</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:I3"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:F7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G4:I5"/>
+    <mergeCell ref="G6:I7"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="G10:I11"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="G14:I15"/>
+    <mergeCell ref="G16:I17"/>
+    <mergeCell ref="G18:I19"/>
+    <mergeCell ref="G20:I21"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="G24:I25"/>
+    <mergeCell ref="G26:I27"/>
+    <mergeCell ref="G28:I29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G30:I31"/>
+    <mergeCell ref="G32:I33"/>
+    <mergeCell ref="G34:I35"/>
+    <mergeCell ref="G36:I37"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
+++ b/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>时间</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>测试</t>
+  </si>
+  <si>
+    <t>17.00-19.01</t>
   </si>
 </sst>
 </file>
@@ -98,11 +101,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,17 +114,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,8 +226,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,88 +250,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,30 +257,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,13 +267,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,32 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,19 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,153 +532,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1070,7 +1066,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:I29"/>
+      <selection activeCell="C30" sqref="C30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1513,13 +1509,21 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>6.01</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>

--- a/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
+++ b/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>时间</t>
   </si>
@@ -92,7 +92,37 @@
     <t>测试</t>
   </si>
   <si>
+    <t>学习json</t>
+  </si>
+  <si>
+    <t>18.30-22.00</t>
+  </si>
+  <si>
+    <t>尝试练习简单的</t>
+  </si>
+  <si>
     <t>17.00-19.01</t>
+  </si>
+  <si>
+    <t>练习json</t>
+  </si>
+  <si>
+    <t>失败，没成功</t>
+  </si>
+  <si>
+    <t>17.00-19.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习web </t>
+  </si>
+  <si>
+    <t>完成 部分</t>
+  </si>
+  <si>
+    <t>编写web</t>
+  </si>
+  <si>
+    <t>完成 ,有错误</t>
   </si>
 </sst>
 </file>
@@ -101,8 +131,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -114,19 +144,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,16 +166,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,25 +201,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,30 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -250,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,12 +297,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,174 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +488,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,15 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,8 +524,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +571,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,10 +596,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +608,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1510,19 +1540,19 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
-        <v>6.01</v>
+        <v>5.29</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1539,13 +1569,21 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>5.31</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
@@ -1561,13 +1599,21 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>6.1</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
@@ -1583,13 +1629,21 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>6.4</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
@@ -1604,8 +1658,224 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1">
+        <v>6.14</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="108">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
@@ -1682,6 +1952,38 @@
     <mergeCell ref="G32:I33"/>
     <mergeCell ref="G34:I35"/>
     <mergeCell ref="G36:I37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="G38:I39"/>
+    <mergeCell ref="G40:I41"/>
+    <mergeCell ref="G42:I43"/>
+    <mergeCell ref="G44:I45"/>
+    <mergeCell ref="G46:I47"/>
+    <mergeCell ref="G48:I49"/>
+    <mergeCell ref="G50:I51"/>
+    <mergeCell ref="G52:I53"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
+++ b/student-service-master/doc/log/log_201608040102_weixinxin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990"/>
+    <workbookView windowWidth="28695" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -101,16 +101,10 @@
     <t>尝试练习简单的</t>
   </si>
   <si>
-    <t>17.00-19.01</t>
-  </si>
-  <si>
     <t>练习json</t>
   </si>
   <si>
     <t>失败，没成功</t>
-  </si>
-  <si>
-    <t>17.00-19.02</t>
   </si>
   <si>
     <t xml:space="preserve">学习web </t>
@@ -152,10 +146,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,14 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -222,6 +209,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +291,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,12 +376,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,6 +482,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,21 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,124 +602,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1096,7 +1090,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="A40" sqref="A40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1660,7 +1654,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
@@ -1668,11 +1662,11 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
@@ -1698,11 +1692,11 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1728,11 +1722,11 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1758,11 +1752,11 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1788,11 +1782,11 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
